--- a/Data/old_new_notation.xlsx
+++ b/Data/old_new_notation.xlsx
@@ -8,34 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://studntnu-my.sharepoint.com/personal/steffejb_ntnu_no/Documents/Work/GitHub/AIM_Norwegian_Freight_Model/AIM_Norwegian_Freight_Model/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="108" documentId="8_{05FF611B-283A-4246-81E4-A32B117B82F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{27E8BB3B-02F6-4546-856A-57721E4A18E0}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="8_{846AA08C-F8B9-4F3B-BB87-563285B60635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4E89609A-097D-4690-9C2E-B906E55B3A25}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14400" windowHeight="23400" xr2:uid="{68442650-BC29-42BF-81A2-79B44C1F468F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="notation" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="93">
   <si>
     <t>old</t>
   </si>
@@ -115,9 +105,6 @@
     <t>Y_YEARS</t>
   </si>
   <si>
-    <t>TO DO</t>
-  </si>
-  <si>
     <t>T_INTERVALS</t>
   </si>
   <si>
@@ -193,15 +180,9 @@
     <t>NMB_CAP</t>
   </si>
   <si>
-    <t>remove?</t>
-  </si>
-  <si>
     <t>LFT_UPG</t>
   </si>
   <si>
-    <t>AFPTS</t>
-  </si>
-  <si>
     <t>LPT</t>
   </si>
   <si>
@@ -212,6 +193,117 @@
   </si>
   <si>
     <t>remove</t>
+  </si>
+  <si>
+    <t>Y_BASE_CAP</t>
+  </si>
+  <si>
+    <t>Y_MAX</t>
+  </si>
+  <si>
+    <t>Y_NODE_CAP</t>
+  </si>
+  <si>
+    <t>C_CAP_LINK</t>
+  </si>
+  <si>
+    <t>Y_ADD_CAP</t>
+  </si>
+  <si>
+    <t>Y_ADD_CAP_NODE</t>
+  </si>
+  <si>
+    <t>C_INV_UPG</t>
+  </si>
+  <si>
+    <t>INV_NODE</t>
+  </si>
+  <si>
+    <t>INV_LINK</t>
+  </si>
+  <si>
+    <t>C_CAP_NODE</t>
+  </si>
+  <si>
+    <t>Q_NODE</t>
+  </si>
+  <si>
+    <t>Q_NODE_BASE</t>
+  </si>
+  <si>
+    <t>C_UPG</t>
+  </si>
+  <si>
+    <t>C_NODE</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Q_EDGE_BASE_RAIL</t>
+  </si>
+  <si>
+    <t>Q_EDGE_RAIL</t>
+  </si>
+  <si>
+    <t>number of expansions</t>
+  </si>
+  <si>
+    <t>CHARGING_ARCS</t>
+  </si>
+  <si>
+    <t>BASE_CHARGE_CAP</t>
+  </si>
+  <si>
+    <t>Q_CHARGE_BASE</t>
+  </si>
+  <si>
+    <t>ROAD_DIST_COST</t>
+  </si>
+  <si>
+    <t>C_CHARGE</t>
+  </si>
+  <si>
+    <t>only new technologies</t>
+  </si>
+  <si>
+    <t>C_EDGE_RAIL</t>
+  </si>
+  <si>
+    <t>AFPT</t>
+  </si>
+  <si>
+    <t>KPTS</t>
+  </si>
+  <si>
+    <t>KPT</t>
+  </si>
+  <si>
+    <t>new definition</t>
+  </si>
+  <si>
+    <t>NCMT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NCM </t>
+  </si>
+  <si>
+    <t>KA_PATHS</t>
+  </si>
+  <si>
+    <t>EAT_RAIL</t>
+  </si>
+  <si>
+    <t>CHARGING_AT</t>
+  </si>
+  <si>
+    <t>EFT_CHARGE</t>
+  </si>
+  <si>
+    <t>MFT_MATURITY</t>
+  </si>
+  <si>
+    <t>EF_CHARGING</t>
   </si>
 </sst>
 </file>
@@ -235,12 +327,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -255,9 +353,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -276,8 +376,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D14615CB-98D6-4505-8264-356CD955D8C2}" name="Table1" displayName="Table1" ref="A1:E46" totalsRowShown="0">
-  <autoFilter ref="A1:E46" xr:uid="{D14615CB-98D6-4505-8264-356CD955D8C2}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D14615CB-98D6-4505-8264-356CD955D8C2}" name="Table1" displayName="Table1" ref="A1:E49" totalsRowShown="0">
+  <autoFilter ref="A1:E49" xr:uid="{D14615CB-98D6-4505-8264-356CD955D8C2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E49">
+    <sortCondition ref="B1:B49"/>
+  </sortState>
   <tableColumns count="5">
     <tableColumn id="3" xr3:uid="{61830227-23F0-4702-8D56-6353F8615AA4}" name="File"/>
     <tableColumn id="1" xr3:uid="{88F9D1D7-C954-49D0-A86E-2DC81279EC4D}" name="old"/>
@@ -586,17 +689,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21DAE87-76CD-485A-94AE-EB83FF62ADEA}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="42" customWidth="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="3" max="3" width="25.28515625" customWidth="1"/>
+    <col min="1" max="1" width="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -613,7 +716,7 @@
         <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -621,7 +724,13 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -629,7 +738,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -637,7 +752,13 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -645,13 +766,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -659,7 +777,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -667,7 +791,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
@@ -675,7 +802,10 @@
         <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>75</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -683,26 +813,32 @@
         <v>3</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>3</v>
       </c>
+      <c r="B10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -710,13 +846,10 @@
         <v>3</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>74</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -724,24 +857,25 @@
         <v>3</v>
       </c>
       <c r="B13" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="C13" t="s">
-        <v>35</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -749,104 +883,126 @@
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>47</v>
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="C18" t="s">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="D18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" t="s">
-        <v>24</v>
-      </c>
-      <c r="D20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>3</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="C21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>3</v>
       </c>
       <c r="B22" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="C22" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
-      </c>
-      <c r="D23" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -854,214 +1010,298 @@
         <v>45</v>
       </c>
       <c r="C24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="D24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" t="s">
-        <v>49</v>
-      </c>
       <c r="D25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>3</v>
+      </c>
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
+      <c r="C27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>3</v>
+      </c>
+      <c r="B30" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>3</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C26" t="s">
-        <v>24</v>
-      </c>
-      <c r="D26" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27" t="s">
-        <v>53</v>
-      </c>
-      <c r="C27" t="s">
-        <v>24</v>
-      </c>
-      <c r="D27" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" t="s">
-        <v>13</v>
-      </c>
-      <c r="C28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>3</v>
-      </c>
-      <c r="B29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C29" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>3</v>
-      </c>
-      <c r="B30" t="s">
-        <v>57</v>
-      </c>
-      <c r="C30" t="s">
-        <v>24</v>
-      </c>
-      <c r="D30" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>7</v>
-      </c>
-      <c r="B32" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" t="s">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C33" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>7</v>
-      </c>
-      <c r="B34" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-      <c r="D34" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>7</v>
-      </c>
-      <c r="B35" t="s">
-        <v>20</v>
-      </c>
-      <c r="C35" t="s">
-        <v>21</v>
-      </c>
-      <c r="D35" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" t="s">
-        <v>22</v>
-      </c>
       <c r="C36" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B37" t="s">
+        <v>14</v>
+      </c>
+      <c r="C37" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B44" t="s">
+        <v>56</v>
+      </c>
+      <c r="C44" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" t="s">
+        <v>42</v>
+      </c>
+      <c r="D45" t="s">
+        <v>55</v>
+      </c>
+      <c r="E45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>7</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1070,4 +1310,292 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085DB58C8134B304E8722528DF46508C9" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f7b5534710389487cb20cdc8fb82d9e5">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="1d2ad661-40b4-4211-810e-9f8311f21e61" xmlns:ns4="e3bebc04-41cd-4c9b-8948-0bf19cce4780" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e6f95054c5c9d100d66f29884ce71db5" ns3:_="" ns4:_="">
+    <xsd:import namespace="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <xsd:import namespace="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns4:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns4:SharingHintHash" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="1d2ad661-40b4-4211-810e-9f8311f21e61" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="10" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="11" nillable="true" ma:displayName="MediaServiceAutoTags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="12" nillable="true" ma:displayName="MediaServiceLocation" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="16" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="17" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="e3bebc04-41cd-4c9b-8948-0bf19cce4780" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="SharingHintHash" ma:index="20" nillable="true" ma:displayName="Sharing Hint Hash" ma:hidden="true" ma:internalName="SharingHintHash" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5B6A76-098C-4034-97CF-3D3F2A9D1582}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73CC7949-9BFD-47F3-AE56-0D87976F5D10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DA48A50D-14C3-46D9-B17F-D829E0B5321A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="e3bebc04-41cd-4c9b-8948-0bf19cce4780"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1d2ad661-40b4-4211-810e-9f8311f21e61"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>